--- a/medicine/Sexualité et sexologie/Prostitution_(film,_1919)/Prostitution_(film,_1919).xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_(film,_1919)/Prostitution_(film,_1919).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prostitution (Die Prostitution) est un film allemand muet réalisé par Richard Oswald, sorti en deux parties : Das gelbe Haus et Die sich verkaufen en 1919.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synopsis
-Un jeune étudiant défend la prostitution devant des institutions internationales....
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jeune étudiant défend la prostitution devant des institutions internationales....
 </t>
         </is>
       </c>
@@ -544,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Prostitution
 Titre original : Die Prostitution, 1. Teil - Das gelbe Haus
@@ -584,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fritz Beckmann
 Anita Berber
@@ -630,8 +651,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synopsis
-Un couple de bourgeois trompent leurs proches dans des affaires louches... 
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un couple de bourgeois trompent leurs proches dans des affaires louches... 
 </t>
         </is>
       </c>
@@ -660,7 +686,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Titre original : Die Prostitution, 2. Teil - Die sich verkaufen
 Réalisation : Richard Oswald
@@ -698,7 +726,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Conrad Veidt
 Reinhold Schünzel
